--- a/DataGrid (1).xlsx
+++ b/DataGrid (1).xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
-    <sheet sheetId="1" name="Main sheet" state="visible" r:id="rId4"/>
+    <sheet name="Main sheet" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <si>
     <t>№</t>
   </si>
@@ -72,9 +71,7 @@
   <si>
     <t>Абысов Владислав Игоревич</t>
   </si>
-  <si>
-    <t/>
-  </si>
+  <si/>
   <si>
     <t>Антипов Артем Владиславович</t>
   </si>
@@ -160,17 +157,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <numFmts>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <color theme="1" tint="0"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <color theme="1" tint="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,53 +188,45 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -267,71 +264,11 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,7 +276,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -360,9 +297,8 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -379,11 +315,10 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -392,13 +327,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -408,7 +343,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw>
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -417,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw>
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -426,30 +361,19 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw>
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -471,11 +395,8 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -490,80 +411,35 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showZeros="true" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" xSplit="0" ySplit="5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="15" zeroHeight="false"/>
   <cols>
-    <col min="1" max="1" width="7.14" customWidth="1"/>
-    <col min="2" max="2" width="71.42" customWidth="1"/>
-    <col min="3" max="4" width="7.14" customWidth="1"/>
-    <col min="5" max="8" width="10.27" customWidth="1"/>
-    <col min="9" max="20" width="13.47" customWidth="1"/>
-    <col min="21" max="21" width="10.2" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" width="7.13999973271743"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" width="71.4200022431436"/>
+    <col customWidth="true" max="4" min="3" outlineLevel="0" width="7.13999973271743"/>
+    <col customWidth="true" max="8" min="5" outlineLevel="0" width="10.2699997141092"/>
+    <col customWidth="true" max="20" min="9" outlineLevel="0" width="13.4700006614398"/>
+    <col customWidth="true" max="21" min="21" outlineLevel="0" width="10.2000001014997"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,17 +504,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s"/>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s"/>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s"/>
+      <c r="B3" s="1" t="s"/>
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s"/>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,11 +567,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="1" t="s"/>
+      <c r="B4" s="1" t="s"/>
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
@@ -748,11 +624,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="1" t="s"/>
+      <c r="B5" s="1" t="s"/>
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s"/>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
@@ -805,18 +681,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="C6" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
@@ -870,17 +746,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -935,18 +811,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>20</v>
@@ -1000,17 +876,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1065,17 +941,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1130,17 +1006,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1195,17 +1071,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1260,17 +1136,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1325,17 +1201,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1390,17 +1266,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1455,17 +1331,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1520,17 +1396,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1585,17 +1461,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1650,17 +1526,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1715,17 +1591,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1780,17 +1656,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1845,17 +1721,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1910,17 +1786,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1975,17 +1851,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -2040,17 +1916,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2105,17 +1981,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2170,17 +2046,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -2235,17 +2111,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2300,17 +2176,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2365,17 +2241,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2430,17 +2306,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -2495,17 +2371,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2567,7 +2443,7 @@
     <mergeCell ref="C1:C5"/>
     <mergeCell ref="D1:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="279.3998mm" paperSize="1" paperWidth="215.8999mm" scale="100"/>
 </worksheet>
 </file>